--- a/September'21/07.09.2021/Bank Statement August-2021.xlsx
+++ b/September'21/07.09.2021/Bank Statement August-2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -763,18 +763,6 @@
     <t>29.04.2021</t>
   </si>
   <si>
-    <t xml:space="preserve">Shohidul </t>
-  </si>
-  <si>
-    <t>01718971912</t>
-  </si>
-  <si>
-    <t>030324</t>
-  </si>
-  <si>
-    <t>Jelani Mobile Centre</t>
-  </si>
-  <si>
     <t>BL Company  Due(+)</t>
   </si>
   <si>
@@ -1097,6 +1085,18 @@
   </si>
   <si>
     <t>Date :07.09.2021</t>
+  </si>
+  <si>
+    <t>Tuhin Mobile Centre</t>
+  </si>
+  <si>
+    <t>R149301</t>
+  </si>
+  <si>
+    <t>01743868515</t>
+  </si>
+  <si>
+    <t>Jewel</t>
   </si>
 </sst>
 </file>
@@ -2518,7 +2518,7 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="509">
+  <cellXfs count="510">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3705,6 +3705,12 @@
     <xf numFmtId="1" fontId="20" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3721,12 +3727,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3996,9 +3996,6 @@
     <xf numFmtId="49" fontId="20" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4018,6 +4015,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4623,52 +4626,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="404" t="s">
+      <c r="A1" s="406" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="404"/>
-      <c r="C1" s="404"/>
-      <c r="D1" s="404"/>
-      <c r="E1" s="404"/>
-      <c r="F1" s="404"/>
-      <c r="G1" s="404"/>
-      <c r="H1" s="404"/>
-      <c r="I1" s="404"/>
-      <c r="J1" s="404"/>
-      <c r="K1" s="404"/>
-      <c r="L1" s="404"/>
-      <c r="M1" s="404"/>
-      <c r="N1" s="404"/>
-      <c r="O1" s="404"/>
-      <c r="P1" s="404"/>
-      <c r="Q1" s="404"/>
-      <c r="R1" s="404"/>
+      <c r="B1" s="406"/>
+      <c r="C1" s="406"/>
+      <c r="D1" s="406"/>
+      <c r="E1" s="406"/>
+      <c r="F1" s="406"/>
+      <c r="G1" s="406"/>
+      <c r="H1" s="406"/>
+      <c r="I1" s="406"/>
+      <c r="J1" s="406"/>
+      <c r="K1" s="406"/>
+      <c r="L1" s="406"/>
+      <c r="M1" s="406"/>
+      <c r="N1" s="406"/>
+      <c r="O1" s="406"/>
+      <c r="P1" s="406"/>
+      <c r="Q1" s="406"/>
+      <c r="R1" s="406"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="405" t="s">
+      <c r="A2" s="407" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="405"/>
-      <c r="C2" s="405"/>
-      <c r="D2" s="405"/>
-      <c r="E2" s="405"/>
-      <c r="F2" s="405"/>
-      <c r="G2" s="405"/>
-      <c r="H2" s="405"/>
-      <c r="I2" s="405"/>
-      <c r="J2" s="405"/>
-      <c r="K2" s="405"/>
-      <c r="L2" s="405"/>
-      <c r="M2" s="405"/>
-      <c r="N2" s="405"/>
-      <c r="O2" s="405"/>
-      <c r="P2" s="405"/>
-      <c r="Q2" s="405"/>
-      <c r="R2" s="405"/>
+      <c r="B2" s="407"/>
+      <c r="C2" s="407"/>
+      <c r="D2" s="407"/>
+      <c r="E2" s="407"/>
+      <c r="F2" s="407"/>
+      <c r="G2" s="407"/>
+      <c r="H2" s="407"/>
+      <c r="I2" s="407"/>
+      <c r="J2" s="407"/>
+      <c r="K2" s="407"/>
+      <c r="L2" s="407"/>
+      <c r="M2" s="407"/>
+      <c r="N2" s="407"/>
+      <c r="O2" s="407"/>
+      <c r="P2" s="407"/>
+      <c r="Q2" s="407"/>
+      <c r="R2" s="407"/>
     </row>
     <row r="3" spans="1:25" s="70" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="416" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B3" s="417"/>
       <c r="C3" s="417"/>
@@ -4695,34 +4698,34 @@
       <c r="Y3" s="73"/>
     </row>
     <row r="4" spans="1:25" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="406" t="s">
+      <c r="A4" s="408" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="408" t="s">
+      <c r="B4" s="410" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="408" t="s">
+      <c r="C4" s="410" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="410" t="s">
+      <c r="D4" s="404" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="410" t="s">
-        <v>133</v>
-      </c>
-      <c r="F4" s="410" t="s">
+      <c r="E4" s="404" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="404" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="410" t="s">
+      <c r="G4" s="404" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="410" t="s">
+      <c r="H4" s="404" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="410" t="s">
+      <c r="I4" s="404" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="410" t="s">
+      <c r="J4" s="404" t="s">
         <v>25</v>
       </c>
       <c r="K4" s="419" t="s">
@@ -4741,7 +4744,7 @@
         <v>29</v>
       </c>
       <c r="P4" s="412" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q4" s="414" t="s">
         <v>106</v>
@@ -4756,16 +4759,16 @@
       <c r="X4" s="72"/>
     </row>
     <row r="5" spans="1:25" s="73" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="407"/>
-      <c r="B5" s="409"/>
-      <c r="C5" s="409"/>
-      <c r="D5" s="411"/>
-      <c r="E5" s="411"/>
-      <c r="F5" s="411"/>
-      <c r="G5" s="411"/>
-      <c r="H5" s="411"/>
-      <c r="I5" s="411"/>
-      <c r="J5" s="411"/>
+      <c r="A5" s="409"/>
+      <c r="B5" s="411"/>
+      <c r="C5" s="411"/>
+      <c r="D5" s="405"/>
+      <c r="E5" s="405"/>
+      <c r="F5" s="405"/>
+      <c r="G5" s="405"/>
+      <c r="H5" s="405"/>
+      <c r="I5" s="405"/>
+      <c r="J5" s="405"/>
       <c r="K5" s="420"/>
       <c r="L5" s="413"/>
       <c r="M5" s="422"/>
@@ -4785,7 +4788,7 @@
     </row>
     <row r="6" spans="1:25" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="256" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B6" s="257"/>
       <c r="C6" s="258"/>
@@ -4818,7 +4821,7 @@
     </row>
     <row r="7" spans="1:25" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="256" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B7" s="257"/>
       <c r="C7" s="258">
@@ -4853,7 +4856,7 @@
     </row>
     <row r="8" spans="1:25" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="256" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B8" s="260"/>
       <c r="C8" s="261"/>
@@ -4888,7 +4891,7 @@
     </row>
     <row r="9" spans="1:25" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="256" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B9" s="260"/>
       <c r="C9" s="261"/>
@@ -4923,7 +4926,7 @@
     </row>
     <row r="10" spans="1:25" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="256" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B10" s="260"/>
       <c r="C10" s="261">
@@ -4958,7 +4961,7 @@
     </row>
     <row r="11" spans="1:25" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="256" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B11" s="260"/>
       <c r="C11" s="261"/>
@@ -7720,6 +7723,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
@@ -7736,10 +7743,6 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7753,7 +7756,7 @@
   </sheetPr>
   <dimension ref="B1:M166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:F19"/>
     </sheetView>
   </sheetViews>
@@ -7792,7 +7795,7 @@
     </row>
     <row r="3" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="445" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C3" s="446"/>
       <c r="D3" s="446"/>
@@ -7804,7 +7807,7 @@
     </row>
     <row r="4" spans="2:13" ht="21.75" x14ac:dyDescent="0.25">
       <c r="B4" s="436" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C4" s="437"/>
       <c r="D4" s="437"/>
@@ -7834,7 +7837,7 @@
       <c r="C6" s="365">
         <v>300000</v>
       </c>
-      <c r="D6" s="507"/>
+      <c r="D6" s="506"/>
       <c r="E6" s="367" t="s">
         <v>0</v>
       </c>
@@ -7845,14 +7848,14 @@
     </row>
     <row r="7" spans="2:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B7" s="387" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C7" s="366">
         <v>25000</v>
       </c>
-      <c r="D7" s="507"/>
+      <c r="D7" s="506"/>
       <c r="E7" s="367" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F7" s="368">
         <v>25000</v>
@@ -7861,12 +7864,12 @@
     </row>
     <row r="8" spans="2:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="388" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C8" s="389">
         <v>2000000</v>
       </c>
-      <c r="D8" s="507"/>
+      <c r="D8" s="506"/>
       <c r="E8" s="370" t="s">
         <v>1</v>
       </c>
@@ -7882,12 +7885,12 @@
     </row>
     <row r="9" spans="2:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="360" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C9" s="375">
         <v>2000000</v>
       </c>
-      <c r="D9" s="507"/>
+      <c r="D9" s="506"/>
       <c r="E9" s="371" t="s">
         <v>4</v>
       </c>
@@ -7912,7 +7915,7 @@
       <c r="C10" s="376">
         <v>13225</v>
       </c>
-      <c r="D10" s="507"/>
+      <c r="D10" s="506"/>
       <c r="E10" s="371" t="s">
         <v>2</v>
       </c>
@@ -7932,14 +7935,14 @@
     </row>
     <row r="11" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="360" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C11" s="376">
         <v>0</v>
       </c>
-      <c r="D11" s="507"/>
+      <c r="D11" s="506"/>
       <c r="E11" s="373" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F11" s="383">
         <v>118285</v>
@@ -7957,13 +7960,13 @@
     </row>
     <row r="12" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="369" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C12" s="377">
         <f>C11+C10</f>
         <v>13225</v>
       </c>
-      <c r="D12" s="507"/>
+      <c r="D12" s="506"/>
       <c r="E12" s="372" t="s">
         <v>7</v>
       </c>
@@ -7977,14 +7980,14 @@
     </row>
     <row r="13" spans="2:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="360" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C13" s="376">
         <v>13841.68</v>
       </c>
-      <c r="D13" s="507"/>
+      <c r="D13" s="506"/>
       <c r="E13" s="372" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F13" s="375">
         <v>0</v>
@@ -7996,12 +7999,12 @@
     </row>
     <row r="14" spans="2:13" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="362" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C14" s="378">
         <v>0</v>
       </c>
-      <c r="D14" s="507"/>
+      <c r="D14" s="506"/>
       <c r="E14" s="373" t="s">
         <v>5</v>
       </c>
@@ -8015,15 +8018,15 @@
     </row>
     <row r="15" spans="2:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="363" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C15" s="379">
         <f>C13+C14</f>
         <v>13841.68</v>
       </c>
-      <c r="D15" s="507"/>
+      <c r="D15" s="506"/>
       <c r="E15" s="373" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F15" s="383">
         <v>166300</v>
@@ -8041,13 +8044,13 @@
     </row>
     <row r="16" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="361" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C16" s="380">
         <f>C15-C12</f>
         <v>616.68000000000029</v>
       </c>
-      <c r="D16" s="507"/>
+      <c r="D16" s="506"/>
       <c r="E16" s="371"/>
       <c r="F16" s="384"/>
       <c r="G16" s="19"/>
@@ -8063,20 +8066,20 @@
     </row>
     <row r="17" spans="2:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="364" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C17" s="381">
         <v>0</v>
       </c>
-      <c r="D17" s="507"/>
+      <c r="D17" s="506"/>
       <c r="E17" s="374"/>
       <c r="F17" s="385"/>
       <c r="G17" s="19"/>
       <c r="K17" s="97" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L17" s="135" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M17" s="136">
         <v>8000</v>
@@ -8084,13 +8087,13 @@
     </row>
     <row r="18" spans="2:13" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B18" s="360" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C18" s="376">
         <f>C9+C13-C12</f>
         <v>2000616.68</v>
       </c>
-      <c r="D18" s="508"/>
+      <c r="D18" s="507"/>
       <c r="E18" s="371" t="s">
         <v>3</v>
       </c>
@@ -8100,7 +8103,7 @@
       </c>
       <c r="G18" s="19"/>
       <c r="K18" s="97" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L18" s="136" t="s">
         <v>85</v>
@@ -8110,13 +8113,13 @@
       </c>
     </row>
     <row r="19" spans="2:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="504" t="s">
-        <v>228</v>
-      </c>
-      <c r="C19" s="505"/>
-      <c r="D19" s="505"/>
-      <c r="E19" s="505"/>
-      <c r="F19" s="506"/>
+      <c r="B19" s="503" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" s="504"/>
+      <c r="D19" s="504"/>
+      <c r="E19" s="504"/>
+      <c r="F19" s="505"/>
       <c r="G19" s="19"/>
       <c r="K19" s="103"/>
       <c r="L19" s="103"/>
@@ -8139,10 +8142,10 @@
       <c r="E21" s="13"/>
       <c r="G21" s="22"/>
       <c r="K21" s="67" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L21" s="67" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M21" s="67">
         <v>4250</v>
@@ -8154,10 +8157,10 @@
       <c r="E22" s="13"/>
       <c r="G22" s="22"/>
       <c r="K22" s="67" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L22" s="67" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M22" s="67">
         <v>1900</v>
@@ -8169,10 +8172,10 @@
       <c r="E23" s="13"/>
       <c r="G23" s="22"/>
       <c r="K23" s="67" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L23" s="67" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M23" s="67">
         <v>750</v>
@@ -8184,10 +8187,10 @@
       <c r="E24" s="13"/>
       <c r="G24" s="22"/>
       <c r="K24" s="67" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L24" s="67" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M24" s="67">
         <v>20000</v>
@@ -8206,10 +8209,10 @@
       <c r="D26" s="23"/>
       <c r="G26" s="22"/>
       <c r="K26" s="246" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L26" s="67" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M26" s="67">
         <v>4500</v>
@@ -8229,7 +8232,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="22"/>
       <c r="K28" s="67" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L28" s="67" t="s">
         <v>86</v>
@@ -8242,11 +8245,11 @@
       <c r="D29" s="14"/>
       <c r="E29" s="15"/>
       <c r="F29" s="16" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G29" s="2"/>
       <c r="K29" s="67" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L29" s="67" t="s">
         <v>86</v>
@@ -8260,10 +8263,10 @@
       <c r="E30" s="15"/>
       <c r="F30" s="16"/>
       <c r="K30" s="67" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L30" s="67" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M30" s="67">
         <v>5000</v>
@@ -8274,10 +8277,10 @@
       <c r="E31" s="15"/>
       <c r="F31" s="16"/>
       <c r="K31" s="67" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L31" s="67" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M31" s="67">
         <v>5000</v>
@@ -8312,10 +8315,10 @@
       <c r="E34" s="12"/>
       <c r="F34" s="8"/>
       <c r="K34" s="67" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L34" s="67" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M34" s="67">
         <v>5000</v>
@@ -8327,10 +8330,10 @@
       <c r="E35" s="7"/>
       <c r="F35" s="10"/>
       <c r="K35" s="67" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L35" s="67" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M35" s="67">
         <v>5000</v>
@@ -8356,10 +8359,10 @@
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K38" s="67" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L38" s="67" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M38" s="67">
         <v>9940</v>
@@ -8367,10 +8370,10 @@
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K39" s="67" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L39" s="67" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M39" s="67">
         <v>4500</v>
@@ -8378,10 +8381,10 @@
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K40" s="67" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L40" s="67" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M40" s="67">
         <v>1500</v>
@@ -9283,7 +9286,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B6" s="36">
         <v>383000</v>
@@ -9313,7 +9316,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B7" s="36">
         <v>293000</v>
@@ -9343,7 +9346,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B8" s="44">
         <v>0</v>
@@ -9373,7 +9376,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B9" s="44">
         <v>517000</v>
@@ -9403,7 +9406,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B10" s="44">
         <v>254000</v>
@@ -9431,7 +9434,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B11" s="48">
         <v>328000</v>
@@ -11148,7 +11151,7 @@
     </row>
     <row r="3" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="445" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C3" s="446"/>
       <c r="D3" s="446"/>
@@ -11160,7 +11163,7 @@
     </row>
     <row r="4" spans="2:13" ht="21.75" x14ac:dyDescent="0.25">
       <c r="B4" s="436" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C4" s="437"/>
       <c r="D4" s="437"/>
@@ -11201,14 +11204,14 @@
     </row>
     <row r="7" spans="2:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="336" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C7" s="337">
         <v>25000</v>
       </c>
       <c r="D7" s="448"/>
       <c r="E7" s="339" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F7" s="340">
         <v>25000</v>
@@ -11230,7 +11233,7 @@
     </row>
     <row r="9" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B9" s="314" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C9" s="315">
         <v>2000000</v>
@@ -11325,7 +11328,7 @@
       <c r="C13" s="318"/>
       <c r="D13" s="449"/>
       <c r="E13" s="316" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F13" s="321">
         <v>128008</v>
@@ -11399,10 +11402,10 @@
       <c r="F17" s="326"/>
       <c r="G17" s="19"/>
       <c r="K17" s="97" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L17" s="135" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M17" s="136">
         <v>8000</v>
@@ -11437,7 +11440,7 @@
       </c>
       <c r="G19" s="19"/>
       <c r="K19" s="97" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L19" s="136" t="s">
         <v>85</v>
@@ -11474,10 +11477,10 @@
       <c r="E22" s="13"/>
       <c r="G22" s="22"/>
       <c r="K22" s="67" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L22" s="67" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M22" s="67">
         <v>4250</v>
@@ -11489,10 +11492,10 @@
       <c r="E23" s="13"/>
       <c r="G23" s="22"/>
       <c r="K23" s="67" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L23" s="67" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M23" s="67">
         <v>1900</v>
@@ -11504,10 +11507,10 @@
       <c r="E24" s="13"/>
       <c r="G24" s="22"/>
       <c r="K24" s="67" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L24" s="67" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M24" s="67">
         <v>750</v>
@@ -11519,10 +11522,10 @@
       <c r="E25" s="13"/>
       <c r="G25" s="22"/>
       <c r="K25" s="67" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L25" s="67" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M25" s="67">
         <v>20000</v>
@@ -11541,10 +11544,10 @@
       <c r="D27" s="23"/>
       <c r="G27" s="22"/>
       <c r="K27" s="246" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L27" s="67" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M27" s="67">
         <v>4500</v>
@@ -11564,7 +11567,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="22"/>
       <c r="K29" s="67" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L29" s="67" t="s">
         <v>86</v>
@@ -11577,11 +11580,11 @@
       <c r="D30" s="14"/>
       <c r="E30" s="15"/>
       <c r="F30" s="16" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G30" s="2"/>
       <c r="K30" s="67" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L30" s="67" t="s">
         <v>86</v>
@@ -11595,10 +11598,10 @@
       <c r="E31" s="15"/>
       <c r="F31" s="16"/>
       <c r="K31" s="67" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L31" s="67" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M31" s="67">
         <v>5000</v>
@@ -11609,10 +11612,10 @@
       <c r="E32" s="15"/>
       <c r="F32" s="16"/>
       <c r="K32" s="67" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L32" s="67" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M32" s="67">
         <v>5000</v>
@@ -11638,10 +11641,10 @@
       <c r="E34" s="7"/>
       <c r="F34" s="10"/>
       <c r="K34" s="67" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L34" s="67" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M34" s="67">
         <v>3000</v>
@@ -11653,10 +11656,10 @@
       <c r="E35" s="12"/>
       <c r="F35" s="8"/>
       <c r="K35" s="67" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L35" s="67" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M35" s="67">
         <v>5000</v>
@@ -11668,10 +11671,10 @@
       <c r="E36" s="7"/>
       <c r="F36" s="10"/>
       <c r="K36" s="67" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L36" s="67" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M36" s="67">
         <v>5000</v>
@@ -11683,7 +11686,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="K37" s="67" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L37" s="67" t="s">
         <v>86</v>
@@ -11698,7 +11701,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="10"/>
       <c r="K38" s="67" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L38" s="67" t="s">
         <v>86</v>
@@ -11709,10 +11712,10 @@
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K39" s="67" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L39" s="67" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M39" s="67">
         <v>9940</v>
@@ -11720,10 +11723,10 @@
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K40" s="67" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L40" s="67" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M40" s="67">
         <v>4500</v>
@@ -12087,7 +12090,7 @@
     </row>
     <row r="5" spans="1:22" s="99" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="468" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B5" s="469"/>
       <c r="C5" s="470"/>
@@ -12349,7 +12352,7 @@
       <c r="P11" s="120"/>
       <c r="Q11" s="125"/>
       <c r="S11" s="98" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="T11" s="136" t="s">
         <v>117</v>
@@ -12442,7 +12445,7 @@
       <c r="P13" s="120"/>
       <c r="Q13" s="125"/>
       <c r="T13" s="136" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U13" s="136">
         <v>497</v>
@@ -12489,7 +12492,7 @@
       </c>
       <c r="Q14" s="125"/>
       <c r="T14" s="136" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="U14" s="136">
         <v>477</v>
@@ -12524,7 +12527,7 @@
       <c r="P15" s="120"/>
       <c r="Q15" s="125"/>
       <c r="T15" s="103" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="U15" s="103">
         <v>60</v>
@@ -12537,10 +12540,10 @@
     <row r="16" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="126"/>
       <c r="B16" s="117" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C16" s="142" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D16" s="105"/>
       <c r="E16" s="290"/>
@@ -12559,7 +12562,7 @@
       <c r="P16" s="120"/>
       <c r="Q16" s="125"/>
       <c r="T16" s="189" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="U16" s="189">
         <v>349</v>
@@ -12627,7 +12630,7 @@
         <v>120</v>
       </c>
       <c r="C18" s="303" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D18" s="105"/>
       <c r="E18" s="290"/>
@@ -12654,10 +12657,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="117" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C19" s="142" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D19" s="105"/>
       <c r="E19" s="290"/>
@@ -12697,7 +12700,7 @@
         <v>121</v>
       </c>
       <c r="C20" s="304" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D20" s="128"/>
       <c r="E20" s="291"/>
@@ -12777,7 +12780,7 @@
         <v>124</v>
       </c>
       <c r="C22" s="142" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D22" s="128"/>
       <c r="E22" s="291"/>
@@ -12888,7 +12891,7 @@
       </c>
       <c r="B25" s="117"/>
       <c r="C25" s="142" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D25" s="128"/>
       <c r="E25" s="291"/>
@@ -12911,7 +12914,7 @@
       </c>
       <c r="B26" s="117"/>
       <c r="C26" s="143" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D26" s="128"/>
       <c r="E26" s="292"/>
@@ -12933,7 +12936,7 @@
         <v>5</v>
       </c>
       <c r="Q26" s="125" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
@@ -12942,7 +12945,7 @@
       </c>
       <c r="B27" s="117"/>
       <c r="C27" s="143" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D27" s="134"/>
       <c r="E27" s="292"/>
@@ -13834,7 +13837,7 @@
     </row>
     <row r="5" spans="1:22" s="99" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="474" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B5" s="475"/>
       <c r="C5" s="475"/>
@@ -13855,7 +13858,7 @@
     </row>
     <row r="6" spans="1:22" s="99" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="290" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B6" s="101" t="s">
         <v>11</v>
@@ -13869,7 +13872,7 @@
         <v>55</v>
       </c>
       <c r="G6" s="101" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H6" s="101" t="s">
         <v>30</v>
@@ -15471,7 +15474,7 @@
     </row>
     <row r="3" spans="2:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="483" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C3" s="484"/>
       <c r="D3" s="484"/>
@@ -17400,8 +17403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17500,15 +17503,15 @@
       <c r="A5" s="269" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="501" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" s="501"/>
+      <c r="B5" s="508" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="509"/>
       <c r="D5" s="270" t="s">
         <v>115</v>
       </c>
       <c r="E5" s="496" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F5" s="497"/>
       <c r="G5" s="240"/>
@@ -17528,14 +17531,14 @@
         <v>116</v>
       </c>
       <c r="B6" s="498" t="s">
-        <v>130</v>
+        <v>235</v>
       </c>
       <c r="C6" s="498"/>
       <c r="D6" s="272" t="s">
-        <v>129</v>
+        <v>236</v>
       </c>
       <c r="E6" s="499" t="s">
-        <v>128</v>
+        <v>237</v>
       </c>
       <c r="F6" s="500"/>
       <c r="G6" s="240"/>
@@ -17570,7 +17573,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="244"/>
       <c r="B8" s="244"/>
       <c r="C8" s="244"/>
@@ -17578,7 +17581,7 @@
       <c r="E8" s="244"/>
       <c r="F8" s="244"/>
     </row>
-    <row r="9" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="244"/>
       <c r="B9" s="244"/>
       <c r="C9" s="244"/>
@@ -17586,7 +17589,7 @@
       <c r="E9" s="244"/>
       <c r="F9" s="244"/>
     </row>
-    <row r="10" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="243"/>
       <c r="B10" s="243"/>
       <c r="C10" s="243"/>
@@ -17594,7 +17597,7 @@
       <c r="E10" s="243"/>
       <c r="F10" s="243"/>
     </row>
-    <row r="11" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="243"/>
       <c r="B11" s="243"/>
       <c r="C11" s="243"/>
@@ -17602,7 +17605,7 @@
       <c r="E11" s="243"/>
       <c r="F11" s="243"/>
     </row>
-    <row r="12" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="243"/>
       <c r="B12" s="243"/>
       <c r="C12" s="243"/>
@@ -17610,7 +17613,7 @@
       <c r="E12" s="243"/>
       <c r="F12" s="243"/>
     </row>
-    <row r="13" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="243"/>
       <c r="B13" s="243"/>
       <c r="C13" s="243"/>
@@ -17618,7 +17621,7 @@
       <c r="E13" s="243"/>
       <c r="F13" s="243"/>
     </row>
-    <row r="14" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="243"/>
       <c r="B14" s="243"/>
       <c r="C14" s="243"/>
@@ -17626,7 +17629,7 @@
       <c r="E14" s="243"/>
       <c r="F14" s="243"/>
     </row>
-    <row r="15" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="243"/>
       <c r="B15" s="243"/>
       <c r="C15" s="243"/>
@@ -17634,7 +17637,7 @@
       <c r="E15" s="243"/>
       <c r="F15" s="243"/>
     </row>
-    <row r="16" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="243"/>
       <c r="B16" s="243"/>
       <c r="C16" s="243"/>
@@ -17642,7 +17645,7 @@
       <c r="E16" s="243"/>
       <c r="F16" s="243"/>
     </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="243"/>
       <c r="B17" s="243"/>
       <c r="C17" s="243"/>
@@ -17650,7 +17653,7 @@
       <c r="E17" s="243"/>
       <c r="F17" s="243"/>
     </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="243"/>
       <c r="B18" s="243"/>
       <c r="C18" s="243"/>
@@ -17658,7 +17661,7 @@
       <c r="E18" s="243"/>
       <c r="F18" s="243"/>
     </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="243"/>
       <c r="B19" s="243"/>
       <c r="C19" s="243"/>
@@ -17666,7 +17669,7 @@
       <c r="E19" s="243"/>
       <c r="F19" s="243"/>
     </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="243"/>
       <c r="B20" s="243"/>
       <c r="C20" s="243"/>
@@ -17674,7 +17677,7 @@
       <c r="E20" s="243"/>
       <c r="F20" s="243"/>
     </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="243"/>
       <c r="B21" s="243"/>
       <c r="C21" s="243"/>
@@ -17682,7 +17685,7 @@
       <c r="E21" s="243"/>
       <c r="F21" s="243"/>
     </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="243"/>
       <c r="B22" s="243"/>
       <c r="C22" s="243"/>
@@ -17690,7 +17693,7 @@
       <c r="E22" s="243"/>
       <c r="F22" s="243"/>
     </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="243"/>
       <c r="B23" s="243"/>
       <c r="C23" s="243"/>
@@ -17698,7 +17701,7 @@
       <c r="E23" s="243"/>
       <c r="F23" s="243"/>
     </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="243"/>
       <c r="B24" s="243"/>
       <c r="C24" s="243"/>
@@ -17706,7 +17709,7 @@
       <c r="E24" s="243"/>
       <c r="F24" s="243"/>
     </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="243"/>
       <c r="B25" s="243"/>
       <c r="C25" s="243"/>
@@ -17714,7 +17717,7 @@
       <c r="E25" s="243"/>
       <c r="F25" s="243"/>
     </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="243"/>
       <c r="B26" s="243"/>
       <c r="C26" s="243"/>
@@ -17722,7 +17725,7 @@
       <c r="E26" s="243"/>
       <c r="F26" s="243"/>
     </row>
-    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="243"/>
       <c r="B27" s="243"/>
       <c r="C27" s="243"/>
@@ -17730,7 +17733,7 @@
       <c r="E27" s="243"/>
       <c r="F27" s="243"/>
     </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="243"/>
       <c r="B28" s="243"/>
       <c r="C28" s="243"/>
@@ -17738,7 +17741,7 @@
       <c r="E28" s="243"/>
       <c r="F28" s="243"/>
     </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="243"/>
       <c r="B29" s="243"/>
       <c r="C29" s="243"/>
@@ -17746,7 +17749,7 @@
       <c r="E29" s="243"/>
       <c r="F29" s="243"/>
     </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="243"/>
       <c r="B30" s="243"/>
       <c r="C30" s="243"/>
@@ -17754,7 +17757,7 @@
       <c r="E30" s="243"/>
       <c r="F30" s="243"/>
     </row>
-    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="243"/>
       <c r="B31" s="243"/>
       <c r="C31" s="243"/>
@@ -17762,7 +17765,7 @@
       <c r="E31" s="243"/>
       <c r="F31" s="243"/>
     </row>
-    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="243"/>
       <c r="B32" s="243"/>
       <c r="C32" s="243"/>
@@ -17770,7 +17773,7 @@
       <c r="E32" s="243"/>
       <c r="F32" s="243"/>
     </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="243"/>
       <c r="B33" s="243"/>
       <c r="C33" s="243"/>
@@ -17778,7 +17781,7 @@
       <c r="E33" s="243"/>
       <c r="F33" s="243"/>
     </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="243"/>
       <c r="B34" s="243"/>
       <c r="C34" s="243"/>
@@ -17786,7 +17789,7 @@
       <c r="E34" s="243"/>
       <c r="F34" s="243"/>
     </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="243"/>
       <c r="B35" s="243"/>
       <c r="C35" s="243"/>
@@ -17794,7 +17797,7 @@
       <c r="E35" s="243"/>
       <c r="F35" s="243"/>
     </row>
-    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="243"/>
       <c r="B36" s="243"/>
       <c r="C36" s="243"/>
@@ -17802,7 +17805,7 @@
       <c r="E36" s="243"/>
       <c r="F36" s="243"/>
     </row>
-    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="243"/>
       <c r="B37" s="243"/>
       <c r="C37" s="243"/>
@@ -17810,7 +17813,7 @@
       <c r="E37" s="243"/>
       <c r="F37" s="243"/>
     </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="243"/>
       <c r="B38" s="243"/>
       <c r="C38" s="243"/>
@@ -17818,7 +17821,7 @@
       <c r="E38" s="243"/>
       <c r="F38" s="243"/>
     </row>
-    <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="243"/>
       <c r="B39" s="243"/>
       <c r="C39" s="243"/>
@@ -17826,7 +17829,7 @@
       <c r="E39" s="243"/>
       <c r="F39" s="243"/>
     </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="243"/>
       <c r="B40" s="243"/>
       <c r="C40" s="243"/>
@@ -17834,7 +17837,7 @@
       <c r="E40" s="243"/>
       <c r="F40" s="243"/>
     </row>
-    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="243"/>
       <c r="B41" s="243"/>
       <c r="C41" s="243"/>
@@ -17842,7 +17845,7 @@
       <c r="E41" s="243"/>
       <c r="F41" s="243"/>
     </row>
-    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="243"/>
       <c r="B42" s="243"/>
       <c r="C42" s="243"/>
@@ -17850,7 +17853,7 @@
       <c r="E42" s="243"/>
       <c r="F42" s="243"/>
     </row>
-    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="243"/>
       <c r="B43" s="243"/>
       <c r="C43" s="243"/>
@@ -17858,7 +17861,7 @@
       <c r="E43" s="243"/>
       <c r="F43" s="243"/>
     </row>
-    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="243"/>
       <c r="B44" s="243"/>
       <c r="C44" s="243"/>
@@ -17866,7 +17869,7 @@
       <c r="E44" s="243"/>
       <c r="F44" s="243"/>
     </row>
-    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="243"/>
       <c r="B45" s="243"/>
       <c r="C45" s="243"/>
@@ -17874,7 +17877,7 @@
       <c r="E45" s="243"/>
       <c r="F45" s="243"/>
     </row>
-    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="243"/>
       <c r="B46" s="243"/>
       <c r="C46" s="243"/>
@@ -17882,7 +17885,7 @@
       <c r="E46" s="243"/>
       <c r="F46" s="243"/>
     </row>
-    <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="243"/>
       <c r="B47" s="243"/>
       <c r="C47" s="243"/>
@@ -17890,7 +17893,7 @@
       <c r="E47" s="243"/>
       <c r="F47" s="243"/>
     </row>
-    <row r="48" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="243"/>
       <c r="B48" s="243"/>
       <c r="C48" s="243"/>
@@ -17898,7 +17901,7 @@
       <c r="E48" s="243"/>
       <c r="F48" s="243"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="243"/>
       <c r="B49" s="243"/>
       <c r="C49" s="243"/>
@@ -17906,7 +17909,7 @@
       <c r="E49" s="243"/>
       <c r="F49" s="243"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="243"/>
       <c r="B50" s="243"/>
       <c r="C50" s="243"/>
@@ -17914,7 +17917,7 @@
       <c r="E50" s="243"/>
       <c r="F50" s="243"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="243"/>
       <c r="B51" s="243"/>
       <c r="C51" s="243"/>
@@ -17922,7 +17925,7 @@
       <c r="E51" s="243"/>
       <c r="F51" s="243"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="243"/>
       <c r="B52" s="243"/>
       <c r="C52" s="243"/>
@@ -17930,7 +17933,7 @@
       <c r="E52" s="243"/>
       <c r="F52" s="243"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="243"/>
       <c r="B53" s="243"/>
       <c r="C53" s="243"/>
@@ -17938,7 +17941,7 @@
       <c r="E53" s="243"/>
       <c r="F53" s="243"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="243"/>
       <c r="B54" s="243"/>
       <c r="C54" s="243"/>
@@ -17946,7 +17949,7 @@
       <c r="E54" s="243"/>
       <c r="F54" s="243"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="243"/>
       <c r="B55" s="243"/>
       <c r="C55" s="243"/>
@@ -17954,7 +17957,7 @@
       <c r="E55" s="243"/>
       <c r="F55" s="243"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="243"/>
       <c r="B56" s="243"/>
       <c r="C56" s="243"/>
@@ -17962,7 +17965,7 @@
       <c r="E56" s="243"/>
       <c r="F56" s="243"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="243"/>
       <c r="B57" s="243"/>
       <c r="C57" s="243"/>
@@ -17970,7 +17973,7 @@
       <c r="E57" s="243"/>
       <c r="F57" s="243"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="243"/>
       <c r="B58" s="243"/>
       <c r="C58" s="243"/>
@@ -17978,7 +17981,7 @@
       <c r="E58" s="243"/>
       <c r="F58" s="243"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="243"/>
       <c r="B59" s="243"/>
       <c r="C59" s="243"/>
@@ -17986,7 +17989,7 @@
       <c r="E59" s="243"/>
       <c r="F59" s="243"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="243"/>
       <c r="B60" s="243"/>
       <c r="C60" s="243"/>
@@ -17994,7 +17997,7 @@
       <c r="E60" s="243"/>
       <c r="F60" s="243"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="243"/>
       <c r="B61" s="243"/>
       <c r="C61" s="243"/>
@@ -18002,7 +18005,7 @@
       <c r="E61" s="243"/>
       <c r="F61" s="243"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="243"/>
       <c r="B62" s="243"/>
       <c r="C62" s="243"/>
@@ -18010,7 +18013,7 @@
       <c r="E62" s="243"/>
       <c r="F62" s="243"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="243"/>
       <c r="B63" s="243"/>
       <c r="C63" s="243"/>
@@ -18018,7 +18021,7 @@
       <c r="E63" s="243"/>
       <c r="F63" s="243"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="243"/>
       <c r="B64" s="243"/>
       <c r="C64" s="243"/>
@@ -18026,7 +18029,7 @@
       <c r="E64" s="243"/>
       <c r="F64" s="243"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="243"/>
       <c r="B65" s="243"/>
       <c r="C65" s="243"/>
@@ -18034,7 +18037,7 @@
       <c r="E65" s="243"/>
       <c r="F65" s="243"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="243"/>
       <c r="B66" s="243"/>
       <c r="C66" s="243"/>
@@ -18042,7 +18045,7 @@
       <c r="E66" s="243"/>
       <c r="F66" s="243"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="243"/>
       <c r="B67" s="243"/>
       <c r="C67" s="243"/>
@@ -18050,7 +18053,7 @@
       <c r="E67" s="243"/>
       <c r="F67" s="243"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="243"/>
       <c r="B68" s="243"/>
       <c r="C68" s="243"/>
@@ -18058,7 +18061,7 @@
       <c r="E68" s="243"/>
       <c r="F68" s="243"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="243"/>
       <c r="B69" s="243"/>
       <c r="C69" s="243"/>
@@ -18066,7 +18069,7 @@
       <c r="E69" s="243"/>
       <c r="F69" s="243"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="243"/>
       <c r="B70" s="243"/>
       <c r="C70" s="243"/>
@@ -18074,7 +18077,7 @@
       <c r="E70" s="243"/>
       <c r="F70" s="243"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="243"/>
       <c r="B71" s="243"/>
       <c r="C71" s="243"/>
@@ -18082,7 +18085,7 @@
       <c r="E71" s="243"/>
       <c r="F71" s="243"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="243"/>
       <c r="B72" s="243"/>
       <c r="C72" s="243"/>
@@ -18090,7 +18093,7 @@
       <c r="E72" s="243"/>
       <c r="F72" s="243"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="243"/>
       <c r="B73" s="243"/>
       <c r="C73" s="243"/>
@@ -18098,7 +18101,7 @@
       <c r="E73" s="243"/>
       <c r="F73" s="243"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="243"/>
       <c r="B74" s="243"/>
       <c r="C74" s="243"/>
@@ -18106,7 +18109,7 @@
       <c r="E74" s="243"/>
       <c r="F74" s="243"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="243"/>
       <c r="B75" s="243"/>
       <c r="C75" s="243"/>
@@ -18114,7 +18117,7 @@
       <c r="E75" s="243"/>
       <c r="F75" s="243"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="243"/>
       <c r="B76" s="243"/>
       <c r="C76" s="243"/>
@@ -18122,7 +18125,7 @@
       <c r="E76" s="243"/>
       <c r="F76" s="243"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="243"/>
       <c r="B77" s="243"/>
       <c r="C77" s="243"/>
@@ -18130,7 +18133,7 @@
       <c r="E77" s="243"/>
       <c r="F77" s="243"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="243"/>
       <c r="B78" s="243"/>
       <c r="C78" s="243"/>
@@ -18138,7 +18141,7 @@
       <c r="E78" s="243"/>
       <c r="F78" s="243"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="243"/>
       <c r="B79" s="243"/>
       <c r="C79" s="243"/>
@@ -18146,7 +18149,7 @@
       <c r="E79" s="243"/>
       <c r="F79" s="243"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="243"/>
       <c r="B80" s="243"/>
       <c r="C80" s="243"/>
@@ -18154,7 +18157,7 @@
       <c r="E80" s="243"/>
       <c r="F80" s="243"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="243"/>
       <c r="B81" s="243"/>
       <c r="C81" s="243"/>
@@ -18162,7 +18165,7 @@
       <c r="E81" s="243"/>
       <c r="F81" s="243"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="243"/>
       <c r="B82" s="243"/>
       <c r="C82" s="243"/>
@@ -18170,7 +18173,7 @@
       <c r="E82" s="243"/>
       <c r="F82" s="243"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="243"/>
       <c r="B83" s="243"/>
       <c r="C83" s="243"/>
@@ -18178,7 +18181,7 @@
       <c r="E83" s="243"/>
       <c r="F83" s="243"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="243"/>
       <c r="B84" s="243"/>
       <c r="C84" s="243"/>
@@ -18186,7 +18189,7 @@
       <c r="E84" s="243"/>
       <c r="F84" s="243"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="243"/>
       <c r="B85" s="243"/>
       <c r="C85" s="243"/>
@@ -18194,7 +18197,7 @@
       <c r="E85" s="243"/>
       <c r="F85" s="243"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="243"/>
       <c r="B86" s="243"/>
       <c r="C86" s="243"/>
@@ -18202,7 +18205,7 @@
       <c r="E86" s="243"/>
       <c r="F86" s="243"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="243"/>
       <c r="B87" s="243"/>
       <c r="C87" s="243"/>
@@ -18210,7 +18213,7 @@
       <c r="E87" s="243"/>
       <c r="F87" s="243"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="243"/>
       <c r="B88" s="243"/>
       <c r="C88" s="243"/>
@@ -18218,7 +18221,7 @@
       <c r="E88" s="243"/>
       <c r="F88" s="243"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="243"/>
       <c r="B89" s="243"/>
       <c r="C89" s="243"/>
@@ -18226,7 +18229,7 @@
       <c r="E89" s="243"/>
       <c r="F89" s="243"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="243"/>
       <c r="B90" s="243"/>
       <c r="C90" s="243"/>
@@ -18234,7 +18237,7 @@
       <c r="E90" s="243"/>
       <c r="F90" s="243"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="243"/>
       <c r="B91" s="243"/>
       <c r="C91" s="243"/>
@@ -18242,7 +18245,7 @@
       <c r="E91" s="243"/>
       <c r="F91" s="243"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="243"/>
       <c r="B92" s="243"/>
       <c r="C92" s="243"/>
@@ -18250,7 +18253,7 @@
       <c r="E92" s="243"/>
       <c r="F92" s="243"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="243"/>
       <c r="B93" s="243"/>
       <c r="C93" s="243"/>
@@ -18258,7 +18261,7 @@
       <c r="E93" s="243"/>
       <c r="F93" s="243"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="243"/>
       <c r="B94" s="243"/>
       <c r="C94" s="243"/>
@@ -18266,7 +18269,7 @@
       <c r="E94" s="243"/>
       <c r="F94" s="243"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="243"/>
       <c r="B95" s="243"/>
       <c r="C95" s="243"/>
@@ -18284,7 +18287,8 @@
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="B5:C5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -18457,31 +18461,31 @@
     </row>
     <row r="6" spans="1:40" s="100" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="344" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B6" s="344" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C6" s="344" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D6" s="344"/>
       <c r="E6" s="344"/>
       <c r="F6" s="115" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G6" s="115" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H6" s="348"/>
       <c r="I6" s="115" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J6" s="115" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K6" s="115" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L6" s="347"/>
       <c r="M6" s="347"/>
@@ -18515,10 +18519,10 @@
     </row>
     <row r="7" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="101" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B7" s="117" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C7" s="101">
         <v>31581</v>
@@ -18533,7 +18537,7 @@
       </c>
       <c r="H7" s="341"/>
       <c r="I7" s="101" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J7" s="101">
         <v>24639</v>
@@ -18574,10 +18578,10 @@
     </row>
     <row r="8" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="101" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B8" s="117" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C8" s="101">
         <v>27500</v>
@@ -18592,7 +18596,7 @@
       </c>
       <c r="H8" s="341"/>
       <c r="I8" s="101" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="J8" s="101">
         <v>37436</v>
@@ -18633,10 +18637,10 @@
     </row>
     <row r="9" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="101" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B9" s="117" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C9" s="101">
         <v>24260</v>
@@ -18651,7 +18655,7 @@
       </c>
       <c r="H9" s="341"/>
       <c r="I9" s="101" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J9" s="101">
         <v>47368</v>
@@ -18692,10 +18696,10 @@
     </row>
     <row r="10" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="101" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B10" s="117" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C10" s="101">
         <v>15836</v>
@@ -18708,7 +18712,7 @@
       <c r="G10" s="101"/>
       <c r="H10" s="341"/>
       <c r="I10" s="101" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J10" s="101">
         <v>45267</v>
@@ -18727,9 +18731,9 @@
       <c r="S10" s="341"/>
       <c r="T10" s="49"/>
       <c r="U10" s="49"/>
-      <c r="V10" s="502"/>
-      <c r="W10" s="502"/>
-      <c r="X10" s="502"/>
+      <c r="V10" s="501"/>
+      <c r="W10" s="501"/>
+      <c r="X10" s="501"/>
       <c r="Y10" s="49"/>
       <c r="Z10" s="49"/>
       <c r="AA10" s="49"/>
@@ -18749,10 +18753,10 @@
     </row>
     <row r="11" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="101" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B11" s="117" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C11" s="101"/>
       <c r="D11" s="102"/>
@@ -18763,7 +18767,7 @@
       </c>
       <c r="H11" s="341"/>
       <c r="I11" s="101" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J11" s="101">
         <v>50042</v>
@@ -18804,7 +18808,7 @@
     </row>
     <row r="12" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="101" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B12" s="117"/>
       <c r="C12" s="101"/>
@@ -18816,7 +18820,7 @@
       </c>
       <c r="H12" s="341"/>
       <c r="I12" s="101" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J12" s="101">
         <v>49660</v>
@@ -18857,7 +18861,7 @@
     </row>
     <row r="13" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="101" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B13" s="117"/>
       <c r="C13" s="101">
@@ -18871,7 +18875,7 @@
       </c>
       <c r="H13" s="341"/>
       <c r="I13" s="101" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J13" s="101">
         <v>40874</v>
@@ -18890,9 +18894,9 @@
       <c r="S13" s="341"/>
       <c r="T13" s="49"/>
       <c r="U13" s="49"/>
-      <c r="V13" s="502"/>
-      <c r="W13" s="502"/>
-      <c r="X13" s="502"/>
+      <c r="V13" s="501"/>
+      <c r="W13" s="501"/>
+      <c r="X13" s="501"/>
       <c r="Y13" s="49"/>
       <c r="Z13" s="49"/>
       <c r="AA13" s="49"/>
@@ -18912,7 +18916,7 @@
     </row>
     <row r="14" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="101" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B14" s="117"/>
       <c r="C14" s="101"/>
@@ -18922,7 +18926,7 @@
       <c r="G14" s="101"/>
       <c r="H14" s="341"/>
       <c r="I14" s="101" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J14" s="101">
         <v>15853</v>
@@ -18963,7 +18967,7 @@
     </row>
     <row r="15" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="101" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B15" s="117"/>
       <c r="C15" s="102"/>
@@ -18973,7 +18977,7 @@
       <c r="G15" s="101"/>
       <c r="H15" s="341"/>
       <c r="I15" s="101" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J15" s="101">
         <v>79074</v>
@@ -19014,7 +19018,7 @@
     </row>
     <row r="16" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="101" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B16" s="117"/>
       <c r="C16" s="101"/>
@@ -19024,7 +19028,7 @@
       <c r="G16" s="101"/>
       <c r="H16" s="341"/>
       <c r="I16" s="101" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J16" s="101">
         <v>55963</v>
@@ -19073,7 +19077,7 @@
       <c r="G17" s="101"/>
       <c r="H17" s="341"/>
       <c r="I17" s="101" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J17" s="101">
         <v>35144</v>
@@ -19122,7 +19126,7 @@
       <c r="G18" s="101"/>
       <c r="H18" s="341"/>
       <c r="I18" s="101" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J18" s="101"/>
       <c r="K18" s="101">
@@ -19169,7 +19173,7 @@
       <c r="G19" s="101"/>
       <c r="H19" s="341"/>
       <c r="I19" s="101" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J19" s="101">
         <v>11460</v>
@@ -19220,7 +19224,7 @@
       <c r="G20" s="101"/>
       <c r="H20" s="341"/>
       <c r="I20" s="101" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J20" s="101">
         <v>39537</v>
@@ -19269,7 +19273,7 @@
       <c r="G21" s="341"/>
       <c r="H21" s="341"/>
       <c r="I21" s="101" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J21" s="101">
         <v>27122</v>
@@ -19561,9 +19565,9 @@
       <c r="AN27" s="49"/>
     </row>
     <row r="28" spans="1:40" s="109" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="503"/>
-      <c r="B28" s="503"/>
-      <c r="C28" s="503"/>
+      <c r="A28" s="502"/>
+      <c r="B28" s="502"/>
+      <c r="C28" s="502"/>
       <c r="D28" s="356"/>
       <c r="E28" s="356"/>
       <c r="F28" s="356"/>
